--- a/public/format_excel/format_import_siswa.xlsx
+++ b/public/format_excel/format_import_siswa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -94,9 +94,6 @@
     <t>ANAK KE</t>
   </si>
   <si>
-    <t>ALAMAT LENGKAP</t>
-  </si>
-  <si>
     <t>NAMA AYAH</t>
   </si>
   <si>
@@ -126,6 +123,21 @@
   </si>
   <si>
     <t>NOMOR HP (Optional)</t>
+  </si>
+  <si>
+    <t>ALAMAT</t>
+  </si>
+  <si>
+    <t>DESA</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>KABUPATEN</t>
+  </si>
+  <si>
+    <t>PROVINSI</t>
   </si>
 </sst>
 </file>
@@ -213,6 +225,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -224,12 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:U59"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,41 +554,41 @@
     <col min="21" max="21" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
@@ -587,67 +599,67 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -660,72 +672,84 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="10" t="s">
+      <c r="S9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="T9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="U9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="V9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="W9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="X9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="Y9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -747,8 +771,12 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -770,8 +798,12 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -793,8 +825,12 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -816,8 +852,12 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -839,8 +879,12 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -862,8 +906,12 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -885,8 +933,12 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -908,8 +960,12 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -931,8 +987,12 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -954,8 +1014,12 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -977,8 +1041,12 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1000,8 +1068,12 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1023,8 +1095,12 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1046,8 +1122,12 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1069,8 +1149,12 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1092,8 +1176,12 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1115,8 +1203,12 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1138,8 +1230,12 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1161,8 +1257,12 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1184,8 +1284,12 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1207,8 +1311,12 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1230,8 +1338,12 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1253,8 +1365,12 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1276,8 +1392,12 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1299,8 +1419,12 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1322,8 +1446,12 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1345,8 +1473,12 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1368,8 +1500,12 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1391,8 +1527,12 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1414,8 +1554,12 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1437,8 +1581,12 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1460,8 +1608,12 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1483,8 +1635,12 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1506,8 +1662,12 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1529,8 +1689,12 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1552,8 +1716,12 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1575,8 +1743,12 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1598,8 +1770,12 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1621,8 +1797,12 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1644,8 +1824,12 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1667,8 +1851,12 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1690,8 +1878,12 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1713,8 +1905,12 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1736,8 +1932,12 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1759,8 +1959,12 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1782,8 +1986,12 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1805,8 +2013,12 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1828,8 +2040,12 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1851,8 +2067,12 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1874,6 +2094,10 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1889,7 +2113,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Jenis Pendaftaran" prompt="Isikan dengan kode jenis pendaftaran berikut_x000a_1 = Siswa Baru_x000a_2 = Pindahan" sqref="H10:H59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Agama" prompt="isikan dengan angka 1 karena semua muslim" sqref="I10:I59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status Dalam Keluarga" prompt="Isikan dengan kode angka berikut_x000a_1 = Anak Kandung_x000a_2 = Anak Angkat_x000a_3 = Anak Tiri" sqref="J10:J59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pekerjaan wali" prompt="Isikan dengan pekerjaan wali" sqref="U10:U59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pekerjaan wali" prompt="Isikan dengan pekerjaan wali" sqref="Y10:Y59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="NIS" prompt="Isikan dengan Nomor Induk Siswa" sqref="B10:B59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Kategori" prompt="Isikan dengan 10 digit NISN" sqref="C10:C59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Lengkap" prompt="Isikan dengan nama lengkap siswa" sqref="D10:D59"/>
@@ -1897,15 +2121,15 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tanggal Lahir" prompt="Isikan dengan tanggal lahir siswa dengan format bulan/tanggal/tahun. contoh 01/31/1999" sqref="G10:G59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Jenis Kelamin" prompt="Isikan dengan format &quot;L&quot; atau &quot;P&quot; tanpa tanda kutip" sqref="E10:E59"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Anak Ke" prompt="isikan sesuai dengan yang ada di kartu keluarga" sqref="K10:K59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alamat" prompt="Isikan alamat lengkap siswa" sqref="L10:L59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nomor HP" prompt="Isikan dengan nomor hp orang tua" sqref="M10:M59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Ayah" prompt="Isikan nama lengkap ayah" sqref="N10:N59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pekerjaan Ayah" prompt="Isikan Pekerjaan Ayah" sqref="O10:O59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pendidikan Ayah" prompt="Isikan dengan kode angka berikut _x000a_1 = SD/MI_x000a_2 = SMP/MTs_x000a_3 = D1_x000a_4 = SMA/SMK/MA_x000a_5 = D2_x000a_6 = D3_x000a_7 = S1_x000a_8 = S2_x000a_9 = S3" sqref="P10:P59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Ibu" prompt="Isikan dengan nama lengkap ibu" sqref="Q10:Q59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pekerjaan Ibu" prompt="Isikan dengan pekerjaan ibu" sqref="R10:R59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pendidikan Ibu" prompt="Isikan dengan kode angka berikut _x000a_1 = SD/MI_x000a_2 = SMP/MTs_x000a_3 = D1_x000a_4 = SMA/SMK/MA_x000a_5 = D2_x000a_6 = D3_x000a_7 = S1_x000a_8 = S2_x000a_9 = S3" sqref="S10:S59"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Wali" prompt="Isikan dengan nama lengkap wali" sqref="T10:T59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Alamat" prompt="Isikan alamat lengkap siswa" sqref="L10:P59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nomor HP" prompt="Isikan dengan nomor hp orang tua" sqref="Q10:Q59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Ayah" prompt="Isikan nama lengkap ayah" sqref="R10:R59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pekerjaan Ayah" prompt="Isikan Pekerjaan Ayah" sqref="S10:S59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pendidikan Ayah" prompt="Isikan dengan kode angka berikut _x000a_1 = SD/MI_x000a_2 = SMP/MTs_x000a_3 = D1_x000a_4 = SMA/SMK/MA_x000a_5 = D2_x000a_6 = D3_x000a_7 = S1_x000a_8 = S2_x000a_9 = S3" sqref="T10:T59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Ibu" prompt="Isikan dengan nama lengkap ibu" sqref="U10:U59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pekerjaan Ibu" prompt="Isikan dengan pekerjaan ibu" sqref="V10:V59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pendidikan Ibu" prompt="Isikan dengan kode angka berikut _x000a_1 = SD/MI_x000a_2 = SMP/MTs_x000a_3 = D1_x000a_4 = SMA/SMK/MA_x000a_5 = D2_x000a_6 = D3_x000a_7 = S1_x000a_8 = S2_x000a_9 = S3" sqref="W10:W59"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nama Wali" prompt="Isikan dengan nama lengkap wali" sqref="X10:X59"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
